--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp15-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp15-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Bmp15</t>
   </si>
   <si>
     <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4126986666666666</v>
+        <v>0.02770266666666667</v>
       </c>
       <c r="H2">
-        <v>1.238096</v>
+        <v>0.083108</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05180130905700151</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.05180130905700151</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N2">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q2">
-        <v>16.80000016914311</v>
+        <v>0.8179536916244445</v>
       </c>
       <c r="R2">
-        <v>151.200001522288</v>
+        <v>7.361583224620001</v>
       </c>
       <c r="S2">
-        <v>0.3776398983502007</v>
+        <v>0.01667169010627488</v>
       </c>
       <c r="T2">
-        <v>0.3776398983502007</v>
+        <v>0.01667169010627488</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4126986666666666</v>
+        <v>0.02770266666666667</v>
       </c>
       <c r="H3">
-        <v>1.238096</v>
+        <v>0.083108</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.05180130905700151</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.05180130905700151</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>119.145069</v>
       </c>
       <c r="O3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q3">
-        <v>16.390337038736</v>
+        <v>1.100212043828</v>
       </c>
       <c r="R3">
-        <v>147.513033348624</v>
+        <v>9.901908394452001</v>
       </c>
       <c r="S3">
-        <v>0.3684312589831062</v>
+        <v>0.0224247343507479</v>
       </c>
       <c r="T3">
-        <v>0.3684312589831062</v>
+        <v>0.0224247343507479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4126986666666666</v>
+        <v>0.02770266666666667</v>
       </c>
       <c r="H4">
-        <v>1.238096</v>
+        <v>0.083108</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.05180130905700151</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.05180130905700151</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,400 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N4">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q4">
-        <v>11.29648805220978</v>
+        <v>0.6233325592048889</v>
       </c>
       <c r="R4">
-        <v>101.668392469888</v>
+        <v>5.609993032844</v>
       </c>
       <c r="S4">
-        <v>0.253928842666693</v>
+        <v>0.01270488459997872</v>
       </c>
       <c r="T4">
-        <v>0.253928842666693</v>
+        <v>0.01270488459997872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.4126986666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.238096</v>
+      </c>
+      <c r="I5">
+        <v>0.7717066171516261</v>
+      </c>
+      <c r="J5">
+        <v>0.7717066171516261</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>29.52617166666667</v>
+      </c>
+      <c r="N5">
+        <v>88.57851500000001</v>
+      </c>
+      <c r="O5">
+        <v>0.3218391660320701</v>
+      </c>
+      <c r="P5">
+        <v>0.3218391660320701</v>
+      </c>
+      <c r="Q5">
+        <v>12.18541167860445</v>
+      </c>
+      <c r="R5">
+        <v>109.66870510744</v>
+      </c>
+      <c r="S5">
+        <v>0.2483654140855094</v>
+      </c>
+      <c r="T5">
+        <v>0.2483654140855094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.4126986666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.238096</v>
+      </c>
+      <c r="I6">
+        <v>0.7717066171516261</v>
+      </c>
+      <c r="J6">
+        <v>0.7717066171516261</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>39.715023</v>
+      </c>
+      <c r="N6">
+        <v>119.145069</v>
+      </c>
+      <c r="O6">
+        <v>0.4328989896002822</v>
+      </c>
+      <c r="P6">
+        <v>0.4328989896002822</v>
+      </c>
+      <c r="Q6">
+        <v>16.390337038736</v>
+      </c>
+      <c r="R6">
+        <v>147.513033348624</v>
+      </c>
+      <c r="S6">
+        <v>0.3340710148327908</v>
+      </c>
+      <c r="T6">
+        <v>0.3340710148327908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.4126986666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.238096</v>
+      </c>
+      <c r="I7">
+        <v>0.7717066171516261</v>
+      </c>
+      <c r="J7">
+        <v>0.7717066171516261</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>22.50081433333333</v>
+      </c>
+      <c r="N7">
+        <v>67.502443</v>
+      </c>
+      <c r="O7">
+        <v>0.2452618443676477</v>
+      </c>
+      <c r="P7">
+        <v>0.2452618443676476</v>
+      </c>
+      <c r="Q7">
+        <v>9.286056074280891</v>
+      </c>
+      <c r="R7">
+        <v>83.57450466852801</v>
+      </c>
+      <c r="S7">
+        <v>0.189270188233326</v>
+      </c>
+      <c r="T7">
+        <v>0.189270188233326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.09438566666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.283157</v>
+      </c>
+      <c r="I8">
+        <v>0.1764920737913724</v>
+      </c>
+      <c r="J8">
+        <v>0.1764920737913724</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>29.52617166666667</v>
+      </c>
+      <c r="N8">
+        <v>88.57851500000001</v>
+      </c>
+      <c r="O8">
+        <v>0.3218391660320701</v>
+      </c>
+      <c r="P8">
+        <v>0.3218391660320701</v>
+      </c>
+      <c r="Q8">
+        <v>2.786847396872778</v>
+      </c>
+      <c r="R8">
+        <v>25.081626571855</v>
+      </c>
+      <c r="S8">
+        <v>0.05680206184028586</v>
+      </c>
+      <c r="T8">
+        <v>0.05680206184028586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.09438566666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.283157</v>
+      </c>
+      <c r="I9">
+        <v>0.1764920737913724</v>
+      </c>
+      <c r="J9">
+        <v>0.1764920737913724</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>39.715023</v>
+      </c>
+      <c r="N9">
+        <v>119.145069</v>
+      </c>
+      <c r="O9">
+        <v>0.4328989896002822</v>
+      </c>
+      <c r="P9">
+        <v>0.4328989896002822</v>
+      </c>
+      <c r="Q9">
+        <v>3.748528922537</v>
+      </c>
+      <c r="R9">
+        <v>33.736760302833</v>
+      </c>
+      <c r="S9">
+        <v>0.07640324041674355</v>
+      </c>
+      <c r="T9">
+        <v>0.07640324041674355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.09438566666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.283157</v>
+      </c>
+      <c r="I10">
+        <v>0.1764920737913724</v>
+      </c>
+      <c r="J10">
+        <v>0.1764920737913724</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>22.50081433333333</v>
+      </c>
+      <c r="N10">
+        <v>67.502443</v>
+      </c>
+      <c r="O10">
+        <v>0.2452618443676477</v>
+      </c>
+      <c r="P10">
+        <v>0.2452618443676476</v>
+      </c>
+      <c r="Q10">
+        <v>2.123754361394556</v>
+      </c>
+      <c r="R10">
+        <v>19.113789252551</v>
+      </c>
+      <c r="S10">
+        <v>0.04328677153434296</v>
+      </c>
+      <c r="T10">
+        <v>0.04328677153434295</v>
       </c>
     </row>
   </sheetData>
